--- a/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABA29F-50A8-4373-97E5-D64D3D604B77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC0CEF-467C-4493-93AD-52F73A532062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36765" yWindow="3420" windowWidth="14400" windowHeight="8235" tabRatio="781" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -1549,6 +1549,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1557,9 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -10392,8 +10392,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14924,7 +14924,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -15111,7 +15111,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <f ca="1">NOW()</f>
-        <v>43860.697839699074</v>
+        <v>43865.364773611109</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -15149,7 +15149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3081D-7C5A-495E-BF52-E878D9C21D82}">
   <dimension ref="A3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -15167,17 +15167,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
@@ -15420,7 +15420,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -15455,46 +15455,46 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -15552,16 +15552,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15584,8 +15584,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15618,17 +15618,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15637,16 +15637,16 @@
       <c r="A27" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">

--- a/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC0CEF-467C-4493-93AD-52F73A532062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A7AB5-1A32-493E-91D8-6632D1045E55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="0_0TitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="0_1UsingThisReport" sheetId="19" r:id="rId4"/>
+    <sheet name="0ATitlePg" sheetId="4" r:id="rId3"/>
+    <sheet name="0BUsingThisReport" sheetId="20" r:id="rId4"/>
     <sheet name="1TranspoChoice" sheetId="2" r:id="rId5"/>
     <sheet name="2CompactDev" sheetId="13" r:id="rId6"/>
     <sheet name="3MixedUseDev" sheetId="12" r:id="rId7"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="259">
   <si>
     <t>data_item</t>
   </si>
@@ -820,7 +820,42 @@
     <t>Using This Report</t>
   </si>
   <si>
-    <t>When we get to final layout, I think we should think about including a text box somewhere up front. On the title page maybe if we have the space. Which explains, like you said in documentation outline, what the tool is and what it is not. I.e., that the 2016 is base year without the project, while the 2040 is what the MTP envisions for the project corridor. That the reviewer then needs to make the step of thinking does the project help the corridor move towards this vision?   I noticed that the 2018 funding round Community Design reviewers thought the 2040 was a Project/No Project change. We need to emphasize that the 2040 indicators are about plan consistency, not about project/no-project benefits, especially as Community Design-type projects are generally lump sum in our plan. No need to tackle now, but put some thought into this and let’s talk about where best to try to emphasize this. Maybe it is laid out in the documentation and it is overkill to also include here.</t>
+    <t>What this report does</t>
+  </si>
+  <si>
+    <t>This report provides base year data on observed 2016 data and, where not observable, on base-year modeled conditions. It is meant to provide rich, quantitative contextual information about each project to aid reviewers in deciding which projects most align with program goals.
+For example, if a project sponsor states that a project's goal is to reduce congestion, the report provides data on how congested the project corridor is under current conditions, and also shows expected job and housing growth in the corridor. Such data, along with any supplemental application narrative provided by the sponsor, are provided to help reviewers decide if the project has potential to be an effective congestion reduction tool.</t>
+  </si>
+  <si>
+    <t>What this report does NOT do</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This report does not in any way model the effects that the proposed project would have if it were built. Any future-year data shown is based on SACOG's travel demand model and MTP-SCS land use forecast and does not necessarily factor in the effects of the proposed project. 
+Future-year data are included to show how well the project aligns with the MTP's vision of the project area, but not to show the effects that the project itself will have on the project area. For example, the future-year population and job growth around a road capacity project answers the question "how many people is this road expected to serve in the future?", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "how much growth will this road project cause?".
+Similarly, for performance outcomes like safety or congestion reduction, the report tells the reviewer if there currently is a problem with congestion or safety (e.g., high collision rate), but it does not say whether the proposed project will improve the issue (e.g., it won't say whether widening a congested segment will reduce congestion on the segment, nor will it say whether a proposed safety project will address the root cause of the safety issue).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -834,7 +869,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1061,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1470,7 +1512,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1546,11 +1588,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10392,7 +10440,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -14924,8 +14972,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14937,40 +14985,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="str">
-        <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
-        <v>Project Performance Assessment Report: test_project_YubaCity</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="49" t="str">
+        <f>"Community Design Project Proposal: "&amp;import!$B$2</f>
+        <v>Community Design Project Proposal: test_project_YubaCity</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -15111,7 +15159,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <f ca="1">NOW()</f>
-        <v>43865.364773611109</v>
+        <v>43900.448340740739</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -15146,11 +15194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F3081D-7C5A-495E-BF52-E878D9C21D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94963B4-D316-4F89-95C3-735CD15B60CB}">
   <dimension ref="A3:I42"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15166,18 +15214,51 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+    </row>
+    <row r="6" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
@@ -15309,8 +15390,9 @@
       <c r="A42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:I4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15323,7 +15405,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15375,7 +15457,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15420,7 +15502,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -15455,46 +15537,46 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -15552,16 +15634,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15619,16 +15701,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -15637,16 +15719,16 @@
       <c r="A27" s="28"/>
     </row>
     <row r="29" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">

--- a/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
+++ b/PPA2/Input_Template/XLSX/PPA_Template_CommDesign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arcserver-svr\D\PPA_v2_SVR\PPA2\Input_Template\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\Input_Template\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A43F42-C5E3-48C4-B648-01C41734056F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C0ADB-E81D-4BB6-A38A-435FA2398745}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22815" windowHeight="13080" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="360" windowWidth="22980" windowHeight="12690" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ATitlePg" sheetId="4" r:id="rId1"/>
@@ -5308,6 +5308,7 @@
         <c:axId val="1588981695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9229,7 +9230,7 @@
   <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
